--- a/Fichiers modifiables/DonnéesExcel/ListeAnimaux.xlsx
+++ b/Fichiers modifiables/DonnéesExcel/ListeAnimaux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Trimestre 6\MA 08 - Serveur BD\Ma-08_Zoo\Fichiers modifiables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AhVen\Documents\GitHub\Ma-08_Zoo\Fichiers modifiables\DonnéesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="508">
   <si>
     <t>name</t>
   </si>
@@ -1135,12 +1135,6 @@
   </si>
   <si>
     <t>pens_id</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>father</t>
   </si>
   <si>
     <t>id</t>
@@ -1554,7 +1548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1909,23 +1903,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:N260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1945,17 +1940,11 @@
       <c r="G1" t="s">
         <v>371</v>
       </c>
-      <c r="H1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1975,11 +1964,11 @@
       <c r="G2">
         <v>57</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1999,11 +1988,11 @@
       <c r="G3" s="1">
         <v>62</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2023,11 +2012,11 @@
       <c r="G4" s="1">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2047,11 +2036,11 @@
       <c r="G5" s="1">
         <v>25</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2071,13 +2060,13 @@
       <c r="G6" s="1">
         <v>27</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2097,11 +2086,11 @@
       <c r="G7" s="1">
         <v>61</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2121,13 +2110,13 @@
       <c r="G8" s="1">
         <v>49</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2147,11 +2136,11 @@
       <c r="G9" s="1">
         <v>52</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2171,11 +2160,11 @@
       <c r="G10" s="1">
         <v>61</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2195,11 +2184,11 @@
       <c r="G11" s="1">
         <v>72</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2219,11 +2208,11 @@
       <c r="G12" s="1">
         <v>97</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2243,11 +2232,11 @@
       <c r="G13" s="1">
         <v>48</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2266,11 +2255,11 @@
       <c r="G14">
         <v>93</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2290,11 +2279,11 @@
       <c r="G15" s="1">
         <v>27</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2313,11 +2302,11 @@
       <c r="G16" s="1">
         <v>64</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2336,11 +2325,11 @@
       <c r="G17" s="1">
         <v>69</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2359,11 +2348,11 @@
       <c r="G18" s="1">
         <v>61</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2382,11 +2371,11 @@
       <c r="G19" s="1">
         <v>89</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2405,16 +2394,16 @@
       <c r="G20">
         <v>90</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>75</v>
@@ -2428,14 +2417,11 @@
       <c r="G21" s="1">
         <v>28</v>
       </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2454,11 +2440,11 @@
       <c r="G22" s="1">
         <v>97</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2477,11 +2463,11 @@
       <c r="G23" s="1">
         <v>61</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2500,11 +2486,11 @@
       <c r="G24" s="1">
         <v>48</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2523,11 +2509,11 @@
       <c r="G25" s="1">
         <v>93</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2546,11 +2532,11 @@
       <c r="G26" s="1">
         <v>59</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2569,11 +2555,11 @@
       <c r="G27" s="1">
         <v>66</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2592,11 +2578,11 @@
       <c r="G28" s="1">
         <v>49</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2615,11 +2601,11 @@
       <c r="G29" s="1">
         <v>55</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2638,11 +2624,11 @@
       <c r="G30">
         <v>59</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2661,11 +2647,11 @@
       <c r="G31">
         <v>63</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2684,11 +2670,11 @@
       <c r="G32">
         <v>53</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2708,11 +2694,11 @@
       <c r="G33">
         <v>27</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2731,11 +2717,11 @@
       <c r="G34">
         <v>48</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2754,11 +2740,11 @@
       <c r="G35">
         <v>59</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2777,17 +2763,13 @@
       <c r="G36">
         <v>89</v>
       </c>
-      <c r="H36" s="1">
-        <v>85</v>
-      </c>
-      <c r="I36" s="1">
-        <v>18</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2807,11 +2789,11 @@
       <c r="G37">
         <v>27</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2830,11 +2812,11 @@
       <c r="G38">
         <v>53</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2853,11 +2835,11 @@
       <c r="G39">
         <v>61</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2876,11 +2858,11 @@
       <c r="G40">
         <v>69</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2899,11 +2881,11 @@
       <c r="G41">
         <v>46</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2922,17 +2904,11 @@
       <c r="G42">
         <v>52</v>
       </c>
-      <c r="H42">
-        <v>8</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2951,11 +2927,11 @@
       <c r="G43">
         <v>88</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2974,11 +2950,11 @@
       <c r="G44" s="1">
         <v>66</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2997,11 +2973,11 @@
       <c r="G45" s="1">
         <v>46</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3020,11 +2996,11 @@
       <c r="G46" s="1">
         <v>86</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3043,11 +3019,11 @@
       <c r="G47" s="1">
         <v>25</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3066,11 +3042,11 @@
       <c r="G48">
         <v>63</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3089,11 +3065,11 @@
       <c r="G49" s="1">
         <v>88</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3112,11 +3088,11 @@
       <c r="G50" s="1">
         <v>54</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3135,17 +3111,11 @@
       <c r="G51" s="1">
         <v>43</v>
       </c>
-      <c r="H51">
-        <v>26</v>
-      </c>
-      <c r="I51">
-        <v>100</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3164,11 +3134,11 @@
       <c r="G52" s="1">
         <v>72</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3187,11 +3157,11 @@
       <c r="G53" s="1">
         <v>57</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3210,16 +3180,16 @@
       <c r="G54" s="1">
         <v>67</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>52</v>
@@ -3233,11 +3203,11 @@
       <c r="G55" s="1">
         <v>46</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3256,11 +3226,11 @@
       <c r="G56" s="1">
         <v>53</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3279,11 +3249,11 @@
       <c r="G57" s="1">
         <v>95</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3302,14 +3272,11 @@
       <c r="G58">
         <v>55</v>
       </c>
-      <c r="H58">
-        <v>28</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3328,11 +3295,11 @@
       <c r="G59" s="1">
         <v>54</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3351,12 +3318,12 @@
       <c r="G60" s="1">
         <v>69</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="J60" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H60" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3375,11 +3342,11 @@
       <c r="G61" s="1">
         <v>53</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3398,17 +3365,11 @@
       <c r="G62" s="1">
         <v>48</v>
       </c>
-      <c r="H62">
-        <v>14</v>
-      </c>
-      <c r="I62">
-        <v>12</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3427,14 +3388,11 @@
       <c r="G63" s="1">
         <v>88</v>
       </c>
-      <c r="H63">
-        <v>42</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H63" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3453,11 +3411,11 @@
       <c r="G64" s="1">
         <v>55</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H64" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3477,17 +3435,11 @@
       <c r="G65">
         <v>27</v>
       </c>
-      <c r="H65">
-        <v>32</v>
-      </c>
-      <c r="I65">
-        <v>14</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H65" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3506,11 +3458,11 @@
       <c r="G66" s="1">
         <v>49</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H66" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3529,14 +3481,11 @@
       <c r="G67" s="1">
         <v>88</v>
       </c>
-      <c r="H67">
-        <v>48</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H67" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3555,11 +3504,11 @@
       <c r="G68" s="1">
         <v>25</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H68" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3578,17 +3527,11 @@
       <c r="G69" s="1">
         <v>28</v>
       </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="I69">
-        <v>20</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3607,11 +3550,11 @@
       <c r="G70" s="1">
         <v>54</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3630,17 +3573,12 @@
       <c r="G71" s="1">
         <v>28</v>
       </c>
-      <c r="H71" s="1">
-        <v>3</v>
-      </c>
-      <c r="I71">
-        <v>20</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3659,11 +3597,11 @@
       <c r="G72" s="1">
         <v>26</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3682,11 +3620,11 @@
       <c r="G73" s="1">
         <v>39</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3705,14 +3643,11 @@
       <c r="G74">
         <v>55</v>
       </c>
-      <c r="H74">
-        <v>57</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3731,14 +3666,11 @@
       <c r="G75" s="1">
         <v>86</v>
       </c>
-      <c r="I75">
-        <v>45</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3746,7 +3678,7 @@
         <v>189</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D76">
         <v>25</v>
@@ -3757,11 +3689,11 @@
       <c r="G76" s="1">
         <v>90</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3780,11 +3712,11 @@
       <c r="G77" s="1">
         <v>55</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3803,17 +3735,11 @@
       <c r="G78" s="1">
         <v>93</v>
       </c>
-      <c r="H78">
-        <v>13</v>
-      </c>
-      <c r="I78">
-        <v>24</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H78" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3832,17 +3758,11 @@
       <c r="G79" s="1">
         <v>93</v>
       </c>
-      <c r="H79">
-        <v>13</v>
-      </c>
-      <c r="I79">
-        <v>24</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H79" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3861,11 +3781,11 @@
       <c r="G80" s="1">
         <v>67</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H80" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3884,11 +3804,11 @@
       <c r="G81" s="1">
         <v>26</v>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H81" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3907,17 +3827,11 @@
       <c r="G82" s="1">
         <v>59</v>
       </c>
-      <c r="H82" s="1">
-        <v>29</v>
-      </c>
-      <c r="I82" s="1">
-        <v>25</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H82" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3936,11 +3850,11 @@
       <c r="G83" s="1">
         <v>61</v>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H83" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3960,11 +3874,11 @@
       <c r="G84" s="1">
         <v>27</v>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H84" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3983,11 +3897,11 @@
       <c r="G85" s="1">
         <v>93</v>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4006,11 +3920,11 @@
       <c r="G86">
         <v>89</v>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H86" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4029,14 +3943,11 @@
       <c r="G87" s="1">
         <v>48</v>
       </c>
-      <c r="I87">
-        <v>33</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H87" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4055,11 +3966,11 @@
       <c r="G88" s="1">
         <v>95</v>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H88" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4078,11 +3989,11 @@
       <c r="G89" s="1">
         <v>22</v>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H89" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4101,14 +4012,11 @@
       <c r="G90" s="1">
         <v>72</v>
       </c>
-      <c r="H90">
-        <v>10</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H90" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4127,17 +4035,11 @@
       <c r="G91" s="1">
         <v>67</v>
       </c>
-      <c r="H91">
-        <v>53</v>
-      </c>
-      <c r="I91">
-        <v>79</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H91" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4156,17 +4058,11 @@
       <c r="G92" s="1">
         <v>97</v>
       </c>
-      <c r="H92">
-        <v>11</v>
-      </c>
-      <c r="I92">
-        <v>21</v>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H92" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4185,11 +4081,11 @@
       <c r="G93">
         <v>87</v>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H93" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4208,11 +4104,11 @@
       <c r="G94" s="1">
         <v>47</v>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H94" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4231,14 +4127,11 @@
       <c r="G95" s="1">
         <v>72</v>
       </c>
-      <c r="H95">
-        <v>10</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H95" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4257,11 +4150,11 @@
       <c r="G96" s="1">
         <v>39</v>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H96" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4280,11 +4173,11 @@
       <c r="G97" s="1">
         <v>48</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H97" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4303,11 +4196,11 @@
       <c r="G98" s="1">
         <v>86</v>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H98" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4326,11 +4219,11 @@
       <c r="G99" s="1">
         <v>62</v>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H99" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4349,14 +4242,11 @@
       <c r="G100">
         <v>88</v>
       </c>
-      <c r="H100">
-        <v>48</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H100" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4375,14 +4265,11 @@
       <c r="G101" s="1">
         <v>66</v>
       </c>
-      <c r="H101">
-        <v>43</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H101" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -4401,11 +4288,11 @@
       <c r="G102" s="1">
         <v>58</v>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4424,11 +4311,11 @@
       <c r="G103" s="1">
         <v>64</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4447,17 +4334,11 @@
       <c r="G104" s="1">
         <v>46</v>
       </c>
-      <c r="H104">
-        <v>40</v>
-      </c>
-      <c r="I104">
-        <v>44</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -4476,14 +4357,11 @@
       <c r="G105" s="1">
         <v>72</v>
       </c>
-      <c r="H105">
-        <v>89</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H105" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4502,17 +4380,11 @@
       <c r="G106" s="1">
         <v>90</v>
       </c>
-      <c r="H106">
-        <v>75</v>
-      </c>
-      <c r="I106">
-        <v>19</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4531,17 +4403,11 @@
       <c r="G107" s="1">
         <v>26</v>
       </c>
-      <c r="H107">
-        <v>71</v>
-      </c>
-      <c r="I107">
-        <v>80</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H107" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4560,11 +4426,11 @@
       <c r="G108">
         <v>87</v>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H108" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4583,14 +4449,11 @@
       <c r="G109" s="1">
         <v>72</v>
       </c>
-      <c r="H109">
-        <v>51</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H109" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4609,11 +4472,11 @@
       <c r="G110" s="1">
         <v>53</v>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H110" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4633,17 +4496,11 @@
       <c r="G111" s="1">
         <v>27</v>
       </c>
-      <c r="H111">
-        <v>32</v>
-      </c>
-      <c r="I111">
-        <v>14</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H111" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4662,11 +4519,11 @@
       <c r="G112" s="1">
         <v>95</v>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H112" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4685,11 +4542,11 @@
       <c r="G113">
         <v>53</v>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H113" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4708,11 +4565,11 @@
       <c r="G114" s="1">
         <v>61</v>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H114" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -4731,11 +4588,11 @@
       <c r="G115" s="1">
         <v>95</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H115" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4754,11 +4611,11 @@
       <c r="G116">
         <v>62</v>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H116" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4777,11 +4634,11 @@
       <c r="G117" s="1">
         <v>57</v>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H117" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4801,11 +4658,11 @@
       <c r="G118" s="1">
         <v>27</v>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H118" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4824,11 +4681,11 @@
       <c r="G119" s="1">
         <v>95</v>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H119" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4847,14 +4704,11 @@
       <c r="G120" s="1">
         <v>93</v>
       </c>
-      <c r="I120">
-        <v>77</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H120" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4873,17 +4727,11 @@
       <c r="G121">
         <v>55</v>
       </c>
-      <c r="H121">
-        <v>28</v>
-      </c>
-      <c r="I121">
-        <v>73</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H121" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4902,14 +4750,11 @@
       <c r="G122" s="1">
         <v>61</v>
       </c>
-      <c r="H122">
-        <v>38</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H122" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4928,17 +4773,11 @@
       <c r="G123" s="1">
         <v>59</v>
       </c>
-      <c r="H123">
-        <v>34</v>
-      </c>
-      <c r="I123">
-        <v>25</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H123" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4957,11 +4796,11 @@
       <c r="G124" s="1">
         <v>54</v>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H124" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4980,17 +4819,11 @@
       <c r="G125" s="1">
         <v>90</v>
       </c>
-      <c r="H125">
-        <v>75</v>
-      </c>
-      <c r="I125">
-        <v>19</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H125" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5010,17 +4843,11 @@
       <c r="G126">
         <v>27</v>
       </c>
-      <c r="H126">
-        <v>32</v>
-      </c>
-      <c r="I126">
-        <v>14</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H126" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5040,11 +4867,11 @@
       <c r="G127" s="1">
         <v>27</v>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H127" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5063,11 +4890,11 @@
       <c r="G128" s="1">
         <v>84</v>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H128" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5086,13 +4913,13 @@
       <c r="G129" s="1">
         <v>87</v>
       </c>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H129" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5111,14 +4938,11 @@
       <c r="G130">
         <v>61</v>
       </c>
-      <c r="H130">
-        <v>38</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H130" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5138,17 +4962,11 @@
       <c r="G131" s="1">
         <v>27</v>
       </c>
-      <c r="H131">
-        <v>36</v>
-      </c>
-      <c r="I131">
-        <v>5</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H131" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5167,11 +4985,11 @@
       <c r="G132" s="1">
         <v>58</v>
       </c>
-      <c r="J132" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H132" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5190,11 +5008,11 @@
       <c r="G133" s="1">
         <v>95</v>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H133" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5213,11 +5031,11 @@
       <c r="G134" s="1">
         <v>22</v>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H134" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5236,11 +5054,11 @@
       <c r="G135">
         <v>84</v>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H135" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5259,14 +5077,11 @@
       <c r="G136" s="1">
         <v>25</v>
       </c>
-      <c r="I136" s="1">
-        <v>46</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H136" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5285,17 +5100,11 @@
       <c r="G137" s="1">
         <v>48</v>
       </c>
-      <c r="H137">
-        <v>14</v>
-      </c>
-      <c r="I137">
-        <v>12</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H137" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5314,11 +5123,11 @@
       <c r="G138" s="1">
         <v>59</v>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H138" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5337,17 +5146,11 @@
       <c r="G139">
         <v>62</v>
       </c>
-      <c r="H139">
-        <v>115</v>
-      </c>
-      <c r="I139">
-        <v>98</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H139" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5366,11 +5169,12 @@
       <c r="G140" s="1">
         <v>88</v>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H140" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M140" s="3"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5389,11 +5193,11 @@
       <c r="G141">
         <v>59</v>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H141" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5412,11 +5216,11 @@
       <c r="G142" s="1">
         <v>24</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H142" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5435,11 +5239,11 @@
       <c r="G143">
         <v>21</v>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H143" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5458,11 +5262,11 @@
       <c r="G144" s="1">
         <v>61</v>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H144" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5481,14 +5285,11 @@
       <c r="G145" s="1">
         <v>86</v>
       </c>
-      <c r="I145">
-        <v>97</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H145" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -5507,17 +5308,11 @@
       <c r="G146" s="1">
         <v>97</v>
       </c>
-      <c r="H146">
-        <v>11</v>
-      </c>
-      <c r="I146">
-        <v>21</v>
-      </c>
-      <c r="J146" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H146" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -5536,14 +5331,11 @@
       <c r="G147" s="1">
         <v>93</v>
       </c>
-      <c r="H147">
-        <v>84</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H147" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -5562,14 +5354,11 @@
       <c r="G148" s="1">
         <v>49</v>
       </c>
-      <c r="I148">
-        <v>27</v>
-      </c>
-      <c r="J148" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H148" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -5588,17 +5377,11 @@
       <c r="G149">
         <v>46</v>
       </c>
-      <c r="H149">
-        <v>40</v>
-      </c>
-      <c r="I149">
-        <v>44</v>
-      </c>
-      <c r="J149" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H149" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -5617,17 +5400,11 @@
       <c r="G150" s="1">
         <v>90</v>
       </c>
-      <c r="H150">
-        <v>75</v>
-      </c>
-      <c r="I150">
-        <v>19</v>
-      </c>
-      <c r="J150" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H150" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -5646,11 +5423,11 @@
       <c r="G151" s="1">
         <v>24</v>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H151" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -5669,14 +5446,11 @@
       <c r="G152" s="1">
         <v>49</v>
       </c>
-      <c r="I152">
-        <v>27</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H152" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -5695,17 +5469,13 @@
       <c r="G153" s="1">
         <v>58</v>
       </c>
-      <c r="H153" s="1">
-        <v>131</v>
-      </c>
-      <c r="I153" s="1">
-        <v>101</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H153" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -5724,13 +5494,13 @@
       <c r="G154" s="1">
         <v>87</v>
       </c>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H154" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -5749,11 +5519,11 @@
       <c r="G155">
         <v>21</v>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H155" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -5772,14 +5542,11 @@
       <c r="G156" s="1">
         <v>39</v>
       </c>
-      <c r="H156">
-        <v>75</v>
-      </c>
-      <c r="J156" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H156" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -5798,17 +5565,11 @@
       <c r="G157" s="1">
         <v>62</v>
       </c>
-      <c r="H157">
-        <v>115</v>
-      </c>
-      <c r="I157">
-        <v>98</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H157" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -5827,17 +5588,11 @@
       <c r="G158" s="1">
         <v>59</v>
       </c>
-      <c r="H158">
-        <v>122</v>
-      </c>
-      <c r="I158">
-        <v>81</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H158" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -5856,17 +5611,11 @@
       <c r="G159" s="1">
         <v>59</v>
       </c>
-      <c r="H159">
-        <v>122</v>
-      </c>
-      <c r="I159">
-        <v>81</v>
-      </c>
-      <c r="J159" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H159" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -5885,11 +5634,11 @@
       <c r="G160" s="1">
         <v>70</v>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H160" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -5908,17 +5657,11 @@
       <c r="G161" s="1">
         <v>53</v>
       </c>
-      <c r="H161">
-        <v>31</v>
-      </c>
-      <c r="I161">
-        <v>37</v>
-      </c>
-      <c r="J161" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H161" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -5937,14 +5680,11 @@
       <c r="G162">
         <v>49</v>
       </c>
-      <c r="I162">
-        <v>27</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H162" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -5963,17 +5703,11 @@
       <c r="G163" s="1">
         <v>69</v>
       </c>
-      <c r="H163">
-        <v>59</v>
-      </c>
-      <c r="I163">
-        <v>16</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H163" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -5992,11 +5726,11 @@
       <c r="G164">
         <v>87</v>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H164" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6015,17 +5749,11 @@
       <c r="G165" s="1">
         <v>43</v>
       </c>
-      <c r="H165">
-        <v>43</v>
-      </c>
-      <c r="I165">
-        <v>50</v>
-      </c>
-      <c r="J165" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H165" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6044,17 +5772,11 @@
       <c r="G166" s="1">
         <v>39</v>
       </c>
-      <c r="H166">
-        <v>95</v>
-      </c>
-      <c r="I166">
-        <v>155</v>
-      </c>
-      <c r="J166" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H166" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6073,11 +5795,11 @@
       <c r="G167" s="1">
         <v>22</v>
       </c>
-      <c r="J167" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H167" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6096,11 +5818,11 @@
       <c r="G168" s="1">
         <v>64</v>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H168" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6119,17 +5841,11 @@
       <c r="G169">
         <v>88</v>
       </c>
-      <c r="H169">
-        <v>62</v>
-      </c>
-      <c r="I169">
-        <v>66</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H169" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6148,17 +5864,11 @@
       <c r="G170" s="1">
         <v>26</v>
       </c>
-      <c r="H170">
-        <v>71</v>
-      </c>
-      <c r="I170">
-        <v>80</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H170" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6177,17 +5887,11 @@
       <c r="G171" s="1">
         <v>89</v>
       </c>
-      <c r="H171">
-        <v>85</v>
-      </c>
-      <c r="I171">
-        <v>18</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H171" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6206,11 +5910,11 @@
       <c r="G172">
         <v>49</v>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H172" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6218,7 +5922,7 @@
         <v>161</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D173" s="1">
         <v>27</v>
@@ -6229,17 +5933,11 @@
       <c r="G173">
         <v>39</v>
       </c>
-      <c r="H173">
-        <v>95</v>
-      </c>
-      <c r="I173">
-        <v>155</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H173" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6258,11 +5956,11 @@
       <c r="G174">
         <v>64</v>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H174" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6281,17 +5979,11 @@
       <c r="G175">
         <v>69</v>
       </c>
-      <c r="H175">
-        <v>59</v>
-      </c>
-      <c r="I175">
-        <v>16</v>
-      </c>
-      <c r="J175" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H175" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6311,17 +6003,11 @@
       <c r="G176">
         <v>27</v>
       </c>
-      <c r="H176">
-        <v>32</v>
-      </c>
-      <c r="I176">
-        <v>5</v>
-      </c>
-      <c r="J176" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H176" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6340,14 +6026,11 @@
       <c r="G177" s="1">
         <v>39</v>
       </c>
-      <c r="H177">
-        <v>172</v>
-      </c>
-      <c r="J177" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H177" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6366,17 +6049,11 @@
       <c r="G178" s="1">
         <v>67</v>
       </c>
-      <c r="H178">
-        <v>53</v>
-      </c>
-      <c r="I178">
-        <v>79</v>
-      </c>
-      <c r="J178" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H178" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -6395,11 +6072,11 @@
       <c r="G179">
         <v>90</v>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H179" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -6418,14 +6095,11 @@
       <c r="G180" s="1">
         <v>49</v>
       </c>
-      <c r="I180">
-        <v>27</v>
-      </c>
-      <c r="J180" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H180" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -6444,14 +6118,11 @@
       <c r="G181">
         <v>39</v>
       </c>
-      <c r="H181">
-        <v>172</v>
-      </c>
-      <c r="J181" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H181" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -6470,17 +6141,11 @@
       <c r="G182" s="1">
         <v>52</v>
       </c>
-      <c r="H182">
-        <v>8</v>
-      </c>
-      <c r="I182">
-        <v>1</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H182" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -6499,11 +6164,11 @@
       <c r="G183" s="1">
         <v>49</v>
       </c>
-      <c r="J183" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H183" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -6522,17 +6187,11 @@
       <c r="G184" s="1">
         <v>54</v>
       </c>
-      <c r="H184">
-        <v>58</v>
-      </c>
-      <c r="I184">
-        <v>198</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H184" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -6551,17 +6210,11 @@
       <c r="G185" s="1">
         <v>62</v>
       </c>
-      <c r="H185">
-        <v>115</v>
-      </c>
-      <c r="I185">
-        <v>98</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H185" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -6580,17 +6233,11 @@
       <c r="G186" s="1">
         <v>54</v>
       </c>
-      <c r="H186">
-        <v>58</v>
-      </c>
-      <c r="I186">
-        <v>198</v>
-      </c>
-      <c r="J186" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H186" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -6609,11 +6256,11 @@
       <c r="G187" s="1">
         <v>47</v>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H187" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -6632,11 +6279,11 @@
       <c r="G188">
         <v>70</v>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H188" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -6655,17 +6302,11 @@
       <c r="G189" s="1">
         <v>25</v>
       </c>
-      <c r="H189">
-        <v>135</v>
-      </c>
-      <c r="I189">
-        <v>67</v>
-      </c>
-      <c r="J189" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H189" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -6684,17 +6325,11 @@
       <c r="G190" s="1">
         <v>88</v>
       </c>
-      <c r="H190">
-        <v>62</v>
-      </c>
-      <c r="I190">
-        <v>66</v>
-      </c>
-      <c r="J190" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H190" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -6713,17 +6348,11 @@
       <c r="G191" s="1">
         <v>95</v>
       </c>
-      <c r="H191">
-        <v>132</v>
-      </c>
-      <c r="I191">
-        <v>114</v>
-      </c>
-      <c r="J191" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H191" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -6742,17 +6371,11 @@
       <c r="G192" s="1">
         <v>58</v>
       </c>
-      <c r="H192">
-        <v>131</v>
-      </c>
-      <c r="I192">
-        <v>101</v>
-      </c>
-      <c r="J192" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H192" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -6771,17 +6394,11 @@
       <c r="G193">
         <v>58</v>
       </c>
-      <c r="H193">
-        <v>131</v>
-      </c>
-      <c r="I193">
-        <v>101</v>
-      </c>
-      <c r="J193" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H193" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -6800,17 +6417,11 @@
       <c r="G194" s="1">
         <v>67</v>
       </c>
-      <c r="H194">
-        <v>53</v>
-      </c>
-      <c r="I194">
-        <v>79</v>
-      </c>
-      <c r="J194" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H194" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -6829,22 +6440,16 @@
       <c r="G195" s="1">
         <v>61</v>
       </c>
-      <c r="H195">
-        <v>83</v>
-      </c>
-      <c r="I195">
-        <v>129</v>
-      </c>
-      <c r="J195" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H195" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>70</v>
@@ -6858,14 +6463,11 @@
       <c r="G196" s="1">
         <v>28</v>
       </c>
-      <c r="H196">
-        <v>70</v>
-      </c>
-      <c r="J196" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H196" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -6884,17 +6486,11 @@
       <c r="G197">
         <v>59</v>
       </c>
-      <c r="H197">
-        <v>158</v>
-      </c>
-      <c r="I197">
-        <v>140</v>
-      </c>
-      <c r="J197" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H197" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -6913,17 +6509,11 @@
       <c r="G198" s="1">
         <v>54</v>
       </c>
-      <c r="H198">
-        <v>69</v>
-      </c>
-      <c r="I198">
-        <v>198</v>
-      </c>
-      <c r="J198" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H198" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -6942,22 +6532,16 @@
       <c r="G199" s="1">
         <v>49</v>
       </c>
-      <c r="H199">
-        <v>179</v>
-      </c>
-      <c r="I199">
-        <v>27</v>
-      </c>
-      <c r="J199" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H199" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>37</v>
@@ -6971,11 +6555,11 @@
       <c r="G200" s="1">
         <v>71</v>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H200" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -6994,14 +6578,11 @@
       <c r="G201" s="1">
         <v>97</v>
       </c>
-      <c r="H201">
-        <v>145</v>
-      </c>
-      <c r="J201" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H201" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7009,7 +6590,7 @@
         <v>341</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D202" s="1">
         <v>11</v>
@@ -7020,19 +6601,19 @@
       <c r="G202">
         <v>71</v>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H202" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D203" s="1">
         <v>12</v>
@@ -7043,11 +6624,11 @@
       <c r="G203" s="1">
         <v>52</v>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H203" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7066,17 +6647,11 @@
       <c r="G204" s="1">
         <v>24</v>
       </c>
-      <c r="H204">
-        <v>141</v>
-      </c>
-      <c r="I204">
-        <v>150</v>
-      </c>
-      <c r="J204" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H204" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7095,16 +6670,16 @@
       <c r="G205" s="1">
         <v>70</v>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H205" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>147</v>
@@ -7118,11 +6693,11 @@
       <c r="G206" s="1">
         <v>70</v>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H206" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -7130,7 +6705,7 @@
         <v>181</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D207" s="1">
         <v>42</v>
@@ -7141,19 +6716,19 @@
       <c r="G207">
         <v>12</v>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H207" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D208" s="1">
         <v>43</v>
@@ -7164,19 +6739,19 @@
       <c r="G208" s="1">
         <v>11</v>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H208" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D209" s="1">
         <v>40</v>
@@ -7187,19 +6762,19 @@
       <c r="G209" s="1">
         <v>4</v>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H209" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D210" s="1">
         <v>46</v>
@@ -7210,19 +6785,19 @@
       <c r="G210">
         <v>8</v>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H210" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D211" s="1">
         <v>40</v>
@@ -7233,19 +6808,19 @@
       <c r="G211" s="1">
         <v>4</v>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H211" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D212" s="1">
         <v>44</v>
@@ -7256,19 +6831,19 @@
       <c r="G212" s="1">
         <v>1</v>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H212" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D213" s="1">
         <v>40</v>
@@ -7279,19 +6854,19 @@
       <c r="G213" s="1">
         <v>4</v>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H213" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D214" s="1">
         <v>48</v>
@@ -7302,19 +6877,19 @@
       <c r="G214">
         <v>6</v>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H214" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D215" s="1">
         <v>41</v>
@@ -7325,19 +6900,19 @@
       <c r="G215" s="1">
         <v>13</v>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H215" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D216" s="1">
         <v>48</v>
@@ -7348,19 +6923,19 @@
       <c r="G216" s="1">
         <v>6</v>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H216" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D217" s="1">
         <v>48</v>
@@ -7371,11 +6946,11 @@
       <c r="G217" s="1">
         <v>6</v>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H217" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -7383,7 +6958,7 @@
         <v>62</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D218" s="1">
         <v>49</v>
@@ -7394,19 +6969,19 @@
       <c r="G218">
         <v>19</v>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H218" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D219" s="1">
         <v>40</v>
@@ -7417,19 +6992,19 @@
       <c r="G219" s="1">
         <v>7</v>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H219" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D220" s="1">
         <v>47</v>
@@ -7440,19 +7015,19 @@
       <c r="G220" s="1">
         <v>18</v>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H220" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D221" s="1">
         <v>48</v>
@@ -7463,19 +7038,19 @@
       <c r="G221">
         <v>6</v>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H221" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D222" s="1">
         <v>41</v>
@@ -7486,19 +7061,19 @@
       <c r="G222" s="1">
         <v>13</v>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H222" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D223" s="1">
         <v>47</v>
@@ -7509,11 +7084,11 @@
       <c r="G223" s="1">
         <v>18</v>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H223" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -7521,7 +7096,7 @@
         <v>324</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D224" s="1">
         <v>46</v>
@@ -7532,19 +7107,19 @@
       <c r="G224" s="1">
         <v>8</v>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H224" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D225" s="1">
         <v>49</v>
@@ -7555,19 +7130,19 @@
       <c r="G225" s="1">
         <v>19</v>
       </c>
-      <c r="J225" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H225" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D226" s="1">
         <v>46</v>
@@ -7578,19 +7153,19 @@
       <c r="G226">
         <v>8</v>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H226" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D227" s="1">
         <v>48</v>
@@ -7601,11 +7176,11 @@
       <c r="G227" s="1">
         <v>6</v>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H227" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -7613,7 +7188,7 @@
         <v>230</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D228" s="1">
         <v>48</v>
@@ -7624,19 +7199,19 @@
       <c r="G228" s="1">
         <v>2</v>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H228" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D229" s="1">
         <v>44</v>
@@ -7647,19 +7222,19 @@
       <c r="G229" s="1">
         <v>1</v>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H229" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D230" s="1">
         <v>45</v>
@@ -7670,19 +7245,19 @@
       <c r="G230">
         <v>14</v>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H230" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D231" s="1">
         <v>41</v>
@@ -7693,19 +7268,19 @@
       <c r="G231" s="1">
         <v>13</v>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H231" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D232" s="1">
         <v>40</v>
@@ -7716,19 +7291,19 @@
       <c r="G232" s="1">
         <v>7</v>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H232" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D233" s="1">
         <v>46</v>
@@ -7739,19 +7314,19 @@
       <c r="G233" s="1">
         <v>8</v>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H233" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D234" s="1">
         <v>48</v>
@@ -7762,11 +7337,11 @@
       <c r="G234" s="1">
         <v>2</v>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H234" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -7774,7 +7349,7 @@
         <v>8</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D235" s="1">
         <v>43</v>
@@ -7785,19 +7360,19 @@
       <c r="G235">
         <v>11</v>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H235" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D236" s="1">
         <v>44</v>
@@ -7808,19 +7383,19 @@
       <c r="G236" s="1">
         <v>1</v>
       </c>
-      <c r="J236" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H236" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D237" s="1">
         <v>44</v>
@@ -7831,19 +7406,19 @@
       <c r="G237" s="1">
         <v>1</v>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H237" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D238" s="1">
         <v>46</v>
@@ -7854,19 +7429,19 @@
       <c r="G238" s="1">
         <v>10</v>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H238" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D239" s="1">
         <v>43</v>
@@ -7877,11 +7452,11 @@
       <c r="G239">
         <v>11</v>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H239" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -7889,7 +7464,7 @@
         <v>328</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D240" s="1">
         <v>46</v>
@@ -7900,19 +7475,19 @@
       <c r="G240" s="1">
         <v>10</v>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H240" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D241" s="1">
         <v>43</v>
@@ -7923,19 +7498,19 @@
       <c r="G241" s="1">
         <v>11</v>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H241" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D242" s="1">
         <v>45</v>
@@ -7946,19 +7521,19 @@
       <c r="G242">
         <v>14</v>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H242" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D243" s="1">
         <v>48</v>
@@ -7969,19 +7544,19 @@
       <c r="G243" s="1">
         <v>2</v>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H243" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D244" s="1">
         <v>46</v>
@@ -7992,19 +7567,19 @@
       <c r="G244" s="1">
         <v>10</v>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H244" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D245" s="1">
         <v>47</v>
@@ -8015,11 +7590,11 @@
       <c r="G245" s="1">
         <v>18</v>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H245" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8027,7 +7602,7 @@
         <v>302</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D246" s="1">
         <v>41</v>
@@ -8038,19 +7613,19 @@
       <c r="G246" s="1">
         <v>13</v>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H246" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D247" s="1">
         <v>49</v>
@@ -8061,19 +7636,19 @@
       <c r="G247">
         <v>19</v>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H247" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D248" s="1">
         <v>40</v>
@@ -8084,19 +7659,19 @@
       <c r="G248" s="1">
         <v>7</v>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H248" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D249" s="1">
         <v>42</v>
@@ -8107,19 +7682,19 @@
       <c r="G249" s="1">
         <v>12</v>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H249" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D250" s="1">
         <v>49</v>
@@ -8130,19 +7705,19 @@
       <c r="G250" s="1">
         <v>19</v>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H250" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D251" s="1">
         <v>48</v>
@@ -8153,19 +7728,19 @@
       <c r="G251" s="1">
         <v>2</v>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H251" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D252" s="1">
         <v>45</v>
@@ -8176,19 +7751,19 @@
       <c r="G252">
         <v>14</v>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H252" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D253" s="1">
         <v>45</v>
@@ -8199,19 +7774,19 @@
       <c r="G253" s="1">
         <v>14</v>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H253" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D254" s="1">
         <v>42</v>
@@ -8222,19 +7797,19 @@
       <c r="G254" s="1">
         <v>12</v>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H254" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D255" s="1">
         <v>40</v>
@@ -8245,19 +7820,19 @@
       <c r="G255" s="1">
         <v>7</v>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H255" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D256" s="1">
         <v>43</v>
@@ -8268,19 +7843,19 @@
       <c r="G256" s="1">
         <v>11</v>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H256" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D257" s="1">
         <v>47</v>
@@ -8291,19 +7866,19 @@
       <c r="G257">
         <v>18</v>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H257" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D258" s="1">
         <v>47</v>
@@ -8314,19 +7889,19 @@
       <c r="G258" s="1">
         <v>18</v>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H258" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D259" s="1">
         <v>45</v>
@@ -8337,11 +7912,11 @@
       <c r="G259" s="1">
         <v>14</v>
       </c>
-      <c r="J259" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H259" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -8349,7 +7924,7 @@
         <v>277</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D260" s="1">
         <v>48</v>
@@ -8360,14 +7935,14 @@
       <c r="G260" s="1">
         <v>2</v>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>393</v>
+      <c r="H260" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="A2:J260">
-    <sortCondition ref="A1"/>
+  <sortState ref="L2:N204">
+    <sortCondition ref="L2:L204"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/Fichiers modifiables/DonnéesExcel/ListeAnimaux.xlsx
+++ b/Fichiers modifiables/DonnéesExcel/ListeAnimaux.xlsx
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,109 +1946,109 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
       <c r="G2">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>505</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>501</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>326</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2068,512 +2068,512 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>493</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>491</v>
+        <v>383</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>498</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>493</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="1">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>497</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="1">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="1">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>499</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
         <v>55</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>93</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>389</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>383</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>377</v>
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>276</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>384</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>392</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>305</v>
+        <v>180</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="G23" s="1">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>357</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>335</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>336</v>
+        <v>152</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>389</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>49</v>
@@ -2584,253 +2584,253 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>308</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>298</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
       <c r="G30">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
       <c r="G32">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>385</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>271</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>383</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>223</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>354</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>383</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>231</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>385</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>61</v>
@@ -2841,1127 +2841,1127 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>303</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="G41">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>392</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D42">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="G42">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="G44" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>23</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>392</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>22</v>
+        <v>287</v>
       </c>
       <c r="D48">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>238</v>
+        <v>127</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="G51" s="1">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <v>2</v>
       </c>
       <c r="G52" s="1">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="D53">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" s="1">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="D55">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="1">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>314</v>
+        <v>241</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="D56">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <v>2</v>
       </c>
       <c r="G57" s="1">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>390</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E58">
         <v>2</v>
       </c>
       <c r="G58">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>492</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="1">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>496</v>
+        <v>389</v>
       </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="1">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="D62">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>499</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="G63" s="1">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>500</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>283</v>
+        <v>51</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65" s="2"/>
+      <c r="F65" s="1"/>
       <c r="G65">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>383</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="G66" s="1">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>346</v>
+        <v>274</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="G67" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="D68">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="D69">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="1">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>384</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
+        <v>39</v>
+      </c>
+      <c r="B70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>54</v>
-      </c>
       <c r="H70" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="D71">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="G71" s="1">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>384</v>
+        <v>496</v>
       </c>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>307</v>
+        <v>9</v>
       </c>
       <c r="D72">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E72">
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>389</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D73">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="G73" s="1">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>337</v>
+        <v>206</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" s="1">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="D76">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E76">
         <v>2</v>
       </c>
       <c r="G76" s="1">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E77">
         <v>2</v>
       </c>
       <c r="G77" s="1">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="G78" s="1">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>389</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>334</v>
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="G79" s="1">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>389</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>367</v>
+        <v>199</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D80" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G80" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>39</v>
+        <v>201</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="D81">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="G81" s="1">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D82" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" s="1">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="G83" s="1">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="1">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>86</v>
+        <v>202</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85" s="1">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>389</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>333</v>
+        <v>77</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="G86">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D87">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87" s="1">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>499</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>277</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="D88">
         <v>13</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="1">
         <v>95</v>
@@ -3972,197 +3972,197 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G89" s="1">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>233</v>
+        <v>34</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="G90" s="1">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>497</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D91">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" s="1">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>364</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>72</v>
+        <v>365</v>
       </c>
       <c r="D92">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D93">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>391</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="D94">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="G94" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D95">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="1">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="D96">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="G96" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>281</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="D97">
         <v>14</v>
@@ -4179,59 +4179,59 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="1">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" s="1">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D100">
         <v>15</v>
@@ -4248,45 +4248,45 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B101" t="s">
-        <v>168</v>
+        <v>341</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>169</v>
+        <v>342</v>
       </c>
       <c r="D101">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" s="1">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>273</v>
+        <v>178</v>
       </c>
       <c r="D102">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="1">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>500</v>
@@ -4294,345 +4294,345 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>89</v>
+        <v>346</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="D103">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
       <c r="G103" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>359</v>
+        <v>255</v>
       </c>
       <c r="D104" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E104" s="1">
         <v>2</v>
       </c>
       <c r="G104" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>392</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="D105" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>58</v>
+        <v>311</v>
       </c>
       <c r="D106" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E106" s="1">
         <v>1</v>
       </c>
       <c r="G106" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="D107" s="1">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E107" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="1">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>389</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="D108" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>391</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="D109" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1">
         <v>1</v>
       </c>
       <c r="G109" s="1">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>323</v>
+        <v>92</v>
       </c>
       <c r="D110" s="1">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E110" s="1">
         <v>1</v>
       </c>
       <c r="G110" s="1">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>385</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D111" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F111" s="1"/>
       <c r="G111" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>383</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>277</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="D112" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E112" s="1">
         <v>2</v>
       </c>
       <c r="G112" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>390</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D113" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D114" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="G114" s="1">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D115" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E116" s="1">
         <v>2</v>
       </c>
       <c r="G116">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>505</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="D117" s="1">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E117" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G117" s="1">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>392</v>
@@ -4640,347 +4640,347 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="D118" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E118" s="1">
         <v>2</v>
       </c>
-      <c r="F118" s="2"/>
+      <c r="F118" s="1"/>
       <c r="G118" s="1">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="D119" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E119" s="1">
         <v>2</v>
       </c>
       <c r="G119" s="1">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="D120" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E120" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" s="1">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D121" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E121" s="1">
         <v>2</v>
       </c>
       <c r="G121">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>202</v>
+        <v>367</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D122" s="1">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E122" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>493</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>368</v>
+        <v>193</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="D123" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E123" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G123" s="1">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>494</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D124" s="1">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G124" s="1">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="D125" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E125" s="1">
         <v>2</v>
       </c>
       <c r="G125" s="1">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>504</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="D126" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E126" s="1">
         <v>1</v>
       </c>
-      <c r="F126" s="2"/>
+      <c r="F126" s="1"/>
       <c r="G126">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>242</v>
+        <v>332</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="D127" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E127" s="1">
         <v>1</v>
       </c>
-      <c r="F127" s="2"/>
+      <c r="F127" s="1"/>
       <c r="G127" s="1">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="D128" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>499</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>167</v>
+        <v>249</v>
       </c>
       <c r="D129" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="D130" s="1">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E130" s="1">
         <v>1</v>
       </c>
       <c r="G130">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>228</v>
+        <v>351</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="D131" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
       </c>
-      <c r="F131" s="2"/>
+      <c r="F131" s="1"/>
       <c r="G131" s="1">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>383</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>351</v>
+        <v>198</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>352</v>
+        <v>199</v>
       </c>
       <c r="D132" s="1">
         <v>21</v>
       </c>
       <c r="E132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" s="1">
         <v>58</v>
@@ -4991,553 +4991,553 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="D133" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133" s="1">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>390</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D134" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" s="1">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>385</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="D135" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="G135">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D136" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136" s="1">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="D137" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E137" s="1">
         <v>2</v>
       </c>
       <c r="G137" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>103</v>
+        <v>380</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="D138" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E138" s="1">
         <v>2</v>
       </c>
       <c r="G138" s="1">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>140</v>
+        <v>362</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>141</v>
+        <v>363</v>
       </c>
       <c r="D139" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
       <c r="G139">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D140" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E140" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140" s="1">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D141" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="D142" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="1">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>384</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D143" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E143" s="1">
         <v>1</v>
       </c>
       <c r="G143">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>171</v>
+        <v>381</v>
       </c>
       <c r="D144" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E144" s="1">
         <v>2</v>
       </c>
       <c r="G144" s="1">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>250</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="D145" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E145" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G145" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="D146" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
       </c>
       <c r="G146" s="1">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="D147" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E147" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G147" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>389</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="D148" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E148" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148" s="1">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>324</v>
+        <v>105</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>325</v>
+        <v>106</v>
       </c>
       <c r="D149" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
       </c>
       <c r="G149">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="D150" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>218</v>
+        <v>87</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D151" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E151" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" s="1">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>357</v>
+        <v>140</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>358</v>
+        <v>141</v>
       </c>
       <c r="D152" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
       </c>
       <c r="G152" s="1">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>198</v>
+        <v>355</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="D153" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E153" s="1">
         <v>1</v>
       </c>
       <c r="G153" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>27</v>
+        <v>345</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D154" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E154" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G154" s="1">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>391</v>
+        <v>505</v>
       </c>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="D155" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E155" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G155">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D156" s="1">
         <v>27</v>
       </c>
       <c r="E156" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G156" s="1">
         <v>39</v>
@@ -5548,91 +5548,91 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>356</v>
+        <v>69</v>
       </c>
       <c r="D157" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E157" s="1">
         <v>1</v>
       </c>
       <c r="G157" s="1">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>328</v>
+        <v>234</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="D158" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E158" s="1">
         <v>1</v>
       </c>
       <c r="G158" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="D159" s="1">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E159" s="1">
         <v>2</v>
       </c>
       <c r="G159" s="1">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="D160" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
       </c>
       <c r="G160" s="1">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>502</v>
@@ -5640,88 +5640,88 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>347</v>
+        <v>10</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="D161" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E161" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161" s="1">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>385</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="D162" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E162" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G162">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="D163" s="1">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E163" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>496</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="D164" s="1">
         <v>29</v>
       </c>
       <c r="E164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G164">
         <v>87</v>
@@ -5732,226 +5732,226 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>226</v>
+        <v>44</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="D165" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E165" s="1">
         <v>2</v>
       </c>
       <c r="G165" s="1">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>507</v>
+        <v>391</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="D166" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
       </c>
       <c r="G166" s="1">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>502</v>
+        <v>391</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D167" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E167" s="1">
         <v>1</v>
       </c>
       <c r="G167" s="1">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="D168" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E168" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G168" s="1">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>503</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
       <c r="D169" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G169">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>500</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D170" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G170" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="D171" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E171" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171" s="1">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>344</v>
+        <v>204</v>
       </c>
       <c r="D172" s="1">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
       </c>
       <c r="G172">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>382</v>
+        <v>90</v>
       </c>
       <c r="D173" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E173" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G173">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>340</v>
       </c>
       <c r="D174" s="1">
         <v>31</v>
       </c>
       <c r="E174" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174">
         <v>64</v>
@@ -5962,598 +5962,598 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="D175" s="1">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="E175" s="1">
         <v>2</v>
       </c>
       <c r="G175">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>236</v>
+        <v>35</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="D176" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E176" s="1">
-        <v>2</v>
-      </c>
-      <c r="F176" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="F176" s="1"/>
       <c r="G176">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>84</v>
+        <v>350</v>
       </c>
       <c r="D177" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="G177" s="1">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>502</v>
+        <v>392</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D178" s="1">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E178" s="1">
         <v>2</v>
       </c>
       <c r="G178" s="1">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D179" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E179" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G179">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="D180" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E180" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G180" s="1">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="D181" s="1">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E181" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>502</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="D182" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E182" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D183" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E183" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G183" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>491</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>60</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>4</v>
+        <v>312</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>5</v>
+        <v>313</v>
       </c>
       <c r="D184" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E184" s="1">
         <v>2</v>
       </c>
       <c r="G184" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>5</v>
+        <v>323</v>
       </c>
       <c r="D185" s="1">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E185" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G185" s="1">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>505</v>
+        <v>385</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>5</v>
+        <v>211</v>
       </c>
       <c r="D186" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E186" s="1">
         <v>1</v>
       </c>
       <c r="G186" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>492</v>
+        <v>385</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>146</v>
+        <v>347</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>147</v>
+        <v>348</v>
       </c>
       <c r="D187" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E187" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G187" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="D188" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E188" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G188">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>502</v>
+        <v>392</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="D189" s="1">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E189" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189" s="1">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>501</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>366</v>
+        <v>72</v>
       </c>
       <c r="D190" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E190" s="1">
         <v>2</v>
       </c>
       <c r="G190" s="1">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>500</v>
+        <v>392</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>364</v>
+        <v>187</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>365</v>
+        <v>188</v>
       </c>
       <c r="D191" s="1">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E191" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="D192" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E192" s="1">
         <v>1</v>
       </c>
       <c r="G192" s="1">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>500</v>
+        <v>392</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>148</v>
+        <v>306</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>47</v>
+        <v>307</v>
       </c>
       <c r="D193" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E193" s="1">
         <v>2</v>
       </c>
       <c r="G193">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>500</v>
+        <v>389</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D194" s="1">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E194" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G194" s="1">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="D195" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E195" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G195" s="1">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>493</v>
+        <v>389</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>195</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>378</v>
+        <v>169</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D196" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E196" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G196" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="D197" s="1">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="E197" s="1">
         <v>2</v>
       </c>
       <c r="G197">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>494</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>197</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>353</v>
+        <v>20</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>354</v>
+        <v>75</v>
       </c>
       <c r="D198" s="1">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E198" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G198" s="1">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>492</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="D199" s="1">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E199" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G199" s="1">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>491</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>199</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>373</v>
+        <v>70</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D200" s="1">
         <v>37</v>
       </c>
-      <c r="D200" s="1">
-        <v>11</v>
-      </c>
       <c r="E200" s="1">
         <v>2</v>
       </c>
       <c r="G200" s="1">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>384</v>
@@ -6561,197 +6561,197 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>200</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>155</v>
+        <v>195</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>378</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="D201" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
       </c>
       <c r="G201" s="1">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>201</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>374</v>
+        <v>26</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D202" s="1">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E202" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G202">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>202</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>376</v>
+        <v>43</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D203" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E203" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203" s="1">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="D204" s="1">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E204" s="1">
         <v>1</v>
       </c>
       <c r="G204" s="1">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D205" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E205" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G205" s="1">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>380</v>
+        <v>226</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>147</v>
+        <v>227</v>
       </c>
       <c r="D206" s="1">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E206" s="1">
         <v>2</v>
       </c>
       <c r="G206" s="1">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>181</v>
+        <v>396</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D207" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E207" s="1">
         <v>2</v>
       </c>
       <c r="G207">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D208" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E208" s="1">
         <v>1</v>
       </c>
       <c r="G208" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D209" s="1">
         <v>40</v>
@@ -6768,128 +6768,128 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D210" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E210" s="1">
         <v>1</v>
       </c>
       <c r="G210">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>491</v>
+        <v>392</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="D211" s="1">
         <v>40</v>
       </c>
       <c r="E211" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G211" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="D212" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E212" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>507</v>
+        <v>392</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="D213" s="1">
         <v>40</v>
       </c>
       <c r="E213" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G213" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D214" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E214" s="1">
         <v>1</v>
       </c>
       <c r="G214">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="D215" s="1">
         <v>41</v>
@@ -6906,91 +6906,91 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="D216" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E216" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G216" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>412</v>
+        <v>302</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="D217" s="1">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E217" s="1">
         <v>2</v>
       </c>
       <c r="G217" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="D218" s="1">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E218" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G218">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>491</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="D219" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E219" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G219" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>392</v>
@@ -6998,68 +6998,68 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="D220" s="1">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E220" s="1">
         <v>1</v>
       </c>
       <c r="G220" s="1">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="D221" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E221" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G221">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>421</v>
+        <v>8</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="D222" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E222" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G222" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>388</v>
@@ -7067,151 +7067,151 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="D223" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
       </c>
       <c r="G223" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>324</v>
+        <v>453</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="D224" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E224" s="1">
         <v>1</v>
       </c>
       <c r="G224" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>491</v>
+        <v>388</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="D225" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
       </c>
       <c r="G225" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>491</v>
+        <v>388</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="D226" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E226" s="1">
         <v>1</v>
       </c>
       <c r="G226">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D227" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E227" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G227" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>230</v>
+        <v>444</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D228" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E228" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G228" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>391</v>
+        <v>507</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D229" s="1">
         <v>44</v>
@@ -7251,22 +7251,22 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="D231" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E231" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>388</v>
@@ -7274,151 +7274,151 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="D232" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E232" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G232" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="D233" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E233" s="1">
         <v>2</v>
       </c>
       <c r="G233" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>491</v>
+        <v>388</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="D234" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E234" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G234" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D235" s="1">
+        <v>46</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+      <c r="G235">
         <v>8</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D235" s="1">
-        <v>43</v>
-      </c>
-      <c r="E235" s="1">
-        <v>2</v>
-      </c>
-      <c r="G235">
-        <v>11</v>
-      </c>
       <c r="H235" s="2" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>445</v>
+        <v>374</v>
       </c>
       <c r="D236" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E236" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G236" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D237" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E237" s="1">
         <v>1</v>
       </c>
       <c r="G237" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D238" s="1">
         <v>46</v>
@@ -7427,33 +7427,33 @@
         <v>2</v>
       </c>
       <c r="G238" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>389</v>
+        <v>491</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D239" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E239" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G239">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7481,111 +7481,111 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D241" s="1">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E241" s="1">
         <v>1</v>
       </c>
       <c r="G241" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="D242" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E242" s="1">
         <v>1</v>
       </c>
       <c r="G242">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="D243" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E243" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G243" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D244" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E244" s="1">
         <v>1</v>
       </c>
       <c r="G244" s="1">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="D245" s="1">
         <v>47</v>
       </c>
       <c r="E245" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G245" s="1">
         <v>18</v>
@@ -7596,128 +7596,128 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>302</v>
+        <v>484</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="D246" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E246" s="1">
         <v>2</v>
       </c>
       <c r="G246" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="D247" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
       </c>
       <c r="G247">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>467</v>
+        <v>411</v>
       </c>
       <c r="D248" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E248" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G248" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>392</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>468</v>
+        <v>412</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>469</v>
+        <v>413</v>
       </c>
       <c r="D249" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E249" s="1">
         <v>2</v>
       </c>
       <c r="G249" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>392</v>
+        <v>492</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>470</v>
+        <v>419</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="D250" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E250" s="1">
         <v>2</v>
       </c>
       <c r="G250" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="D251" s="1">
         <v>48</v>
@@ -7726,223 +7726,223 @@
         <v>2</v>
       </c>
       <c r="G251" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>391</v>
+        <v>492</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>473</v>
+        <v>230</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="D252" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E252" s="1">
         <v>1</v>
       </c>
       <c r="G252">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="D253" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E253" s="1">
         <v>2</v>
       </c>
       <c r="G253" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D254" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E254" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G254" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D255" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E255" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G255" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D256" s="1">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E256" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G256" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>482</v>
+        <v>62</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="D257" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E257" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G257">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>384</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>484</v>
+        <v>425</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>485</v>
+        <v>426</v>
       </c>
       <c r="D258" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E258" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G258" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>384</v>
+        <v>491</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D259" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E259" s="1">
         <v>1</v>
       </c>
       <c r="G259" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>277</v>
+        <v>470</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="D260" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E260" s="1">
         <v>2</v>
       </c>
       <c r="G260" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>391</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <sortState ref="L2:N204">
-    <sortCondition ref="L2:L204"/>
+  <sortState ref="A2:H260">
+    <sortCondition ref="D2:D260"/>
   </sortState>
   <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
